--- a/biology/Botanique/Florence_Yoch/Florence_Yoch.xlsx
+++ b/biology/Botanique/Florence_Yoch/Florence_Yoch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Yoch (née le 15 juillet 1890 et décédée le 31 janvier 1972[1] à Carmel, Californie) est une paysagiste américaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Yoch (née le 15 juillet 1890 et décédée le 31 janvier 1972 à Carmel, Californie) est une paysagiste américaine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Associée à sa compagne Lucile Council de 1920 à 1970, elle projette et réalise plus de 250 jardins et 5 décors de films, depuis les grands parcs résidentiels de Pasadena à de petits carrés privés à Carmel, ou encore des palaces d'Hollywood.
 Pour les films de Jack Warner et de George Cukor, elle réalise le jardin des Capulets dans Roméo et Juliette et le jardin du domaine de Tara, pour le film Autant en emporte le vent (Gone with the Wind) en 1939.
